--- a/data/trans_orig/Q64C-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>38.95844738396945</v>
+        <v>39.00933911373406</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>39.98098424121159</v>
+        <v>40.00124734483293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35.8748607184136</v>
+        <v>35.72712708498882</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37.36755856939676</v>
+        <v>37.44177306754045</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>34.79563580411099</v>
+        <v>34.74040146371179</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>35.29940563563253</v>
+        <v>35.39362704247371</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>32.51369800850253</v>
+        <v>32.56762593177015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>34.76546252709136</v>
+        <v>34.77272862863595</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>37.72638452248373</v>
+        <v>37.78745006806676</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>38.42845675554042</v>
+        <v>38.50704337705023</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34.76390800218547</v>
+        <v>34.87172527755808</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>36.44935862557551</v>
+        <v>36.48884511641791</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41.10690698155407</v>
+        <v>41.07292149567444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>42.51516029854356</v>
+        <v>42.43958567599438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38.69398080665975</v>
+        <v>38.71393726759687</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39.22582997561314</v>
+        <v>39.26617462464208</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>37.29611553153521</v>
+        <v>37.22777506283386</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>38.61214291228048</v>
+        <v>38.68830625791927</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>35.38128901503661</v>
+        <v>35.41062610107979</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>36.62275039093312</v>
+        <v>36.57517632099407</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>39.34046289020603</v>
+        <v>39.49250503431688</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40.50725625183667</v>
+        <v>40.58438923653713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36.75238642070135</v>
+        <v>36.96692424263937</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>37.78196053865313</v>
+        <v>37.78355872348533</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>38.85179941199826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38.00638960888454</v>
+        <v>38.00638960888453</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>36.09912330740656</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>37.13955572151283</v>
+        <v>37.11136954264511</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>38.708217977186</v>
+        <v>38.6897005971876</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37.72860873553974</v>
+        <v>37.79472401783257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>36.91394251709951</v>
+        <v>36.71994705952558</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>34.9333596115608</v>
+        <v>34.92171381309125</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>33.72773340391355</v>
+        <v>33.73669331652886</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>33.11324318542459</v>
+        <v>33.11624470259503</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>34.18745435860538</v>
+        <v>33.95067189732144</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>36.41261046487784</v>
+        <v>36.37564608451089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37.13510152115614</v>
+        <v>37.04164301247052</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36.0617389729337</v>
+        <v>36.10525798429348</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>35.92254310759014</v>
+        <v>35.8087137722253</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>39.07477835302817</v>
+        <v>38.97618968536143</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>40.62556466189837</v>
+        <v>40.5680433728553</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39.94544988867119</v>
+        <v>39.87822257442711</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>38.90269985525472</v>
+        <v>38.9133630463934</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>37.26451943060813</v>
+        <v>37.15457702740011</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.3748561388369</v>
+        <v>36.31031021150903</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>36.05977980970224</v>
+        <v>36.04431745983736</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>36.24989045751006</v>
+        <v>36.13433975104299</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>37.80514004337303</v>
+        <v>37.85180892526508</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38.69228760475045</v>
+        <v>38.69321344221083</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>37.86906253912734</v>
+        <v>37.90730972655987</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>37.44111858161092</v>
+        <v>37.42193249257782</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>39.22115809413604</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>38.48173062157218</v>
+        <v>38.48173062157219</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>42.2348757155657</v>
@@ -965,7 +965,7 @@
         <v>40.98057246820875</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>41.19284951892306</v>
+        <v>41.19284951892305</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>41.46101667580472</v>
+        <v>41.48301630704297</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>43.07634725308176</v>
+        <v>42.98540590713775</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39.74205752991577</v>
+        <v>39.82598873513619</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>40.8367436074606</v>
+        <v>40.75040620433121</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>37.29774986125565</v>
+        <v>37.49192394346628</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>40.29170494966166</v>
+        <v>40.30748095492106</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>36.87352554463521</v>
+        <v>36.72709986345716</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>36.19900220740025</v>
+        <v>36.19596590586369</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>41.13428896957972</v>
+        <v>41.11803058565062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>42.70480712736649</v>
+        <v>42.77578598905826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>39.63056190699517</v>
+        <v>39.55317532993435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>40.23377315427233</v>
+        <v>40.20953260195103</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>43.87034340055904</v>
+        <v>43.88273475072359</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>45.5512228326919</v>
+        <v>45.23990233517653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>43.30351743517387</v>
+        <v>43.22187156911678</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43.37876465018296</v>
+        <v>43.3547917119637</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>42.3080807729108</v>
+        <v>42.44886105413614</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>45.09129445853404</v>
+        <v>45.04016940956042</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>41.9427100269171</v>
+        <v>42.09562407357092</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>40.69323176701452</v>
+        <v>40.47888184351236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>43.31596917751885</v>
+        <v>43.34652784463706</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44.8169678277358</v>
+        <v>44.92591706663996</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42.50102169644732</v>
+        <v>42.45749649102707</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>42.51776933914468</v>
+        <v>42.40969204799738</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>38.73424477299181</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>38.91566761317829</v>
+        <v>38.9156676131783</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>41.78416214559395</v>
+        <v>41.75801428394057</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>40.22063504618234</v>
+        <v>40.16351298132996</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>39.49394396421323</v>
+        <v>39.53391723479255</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40.25883913764553</v>
+        <v>40.18418910893286</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>38.10911969140766</v>
+        <v>38.17898869514661</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.29903879186349</v>
+        <v>34.19636858454005</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>35.01197570333609</v>
+        <v>35.0513686852442</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>35.31323144033115</v>
+        <v>35.39078744545888</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>40.93763385171877</v>
+        <v>40.97665488927328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37.98733449299389</v>
+        <v>37.97676060571212</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37.88120279222449</v>
+        <v>37.84638397609103</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>38.34409879357404</v>
+        <v>38.27292543233172</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>43.31250361433828</v>
+        <v>43.23512609439485</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>42.02140354981925</v>
+        <v>41.99667257738516</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>41.43525973621198</v>
+        <v>41.46105358360723</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>41.90154917710979</v>
+        <v>41.82319774108569</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>41.24513463549109</v>
+        <v>41.33199271028725</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>37.09672694484468</v>
+        <v>37.10201833746069</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>37.90819943956684</v>
+        <v>38.04535586967997</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>37.01351774635702</v>
+        <v>37.1123757800415</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>42.35136514014896</v>
+        <v>42.36897062777345</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39.60922382828581</v>
+        <v>39.62847993236592</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39.54361174994124</v>
+        <v>39.60112429562307</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>39.52221477405518</v>
+        <v>39.5784173001657</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>31.82972150560871</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>33.29859717864333</v>
+        <v>33.29859717864332</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>37.12165551341464</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>37.75117467656464</v>
+        <v>37.74193284003263</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>37.81282164462276</v>
+        <v>37.77498776579885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37.18059050198735</v>
+        <v>37.274511791287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38.69394049620728</v>
+        <v>38.61280251482087</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>33.20913154656748</v>
+        <v>33.14066610887947</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>29.51782139269502</v>
+        <v>29.63258544714545</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>30.10998569786709</v>
+        <v>30.12774299815615</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>32.09051198651417</v>
+        <v>32.16632687200918</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>35.88432655940247</v>
+        <v>35.91446399723057</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33.84083612179027</v>
+        <v>33.79576517717341</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>34.12182563057125</v>
+        <v>33.9754670563802</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>35.75465018966209</v>
+        <v>35.70818952590705</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>41.13607565575341</v>
+        <v>41.15585121916964</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>40.94420797381952</v>
+        <v>40.91522364885494</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39.84854596124823</v>
+        <v>39.97449114154964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40.58760006406218</v>
+        <v>40.53948627829927</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>37.07570134094577</v>
+        <v>37.27086241323153</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.18486769606759</v>
+        <v>33.33059803794569</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>33.40228177213982</v>
+        <v>33.60956349209389</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>34.39470308414767</v>
+        <v>34.37435587877255</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>38.58979338464652</v>
+        <v>38.54176714298481</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>36.4088798793144</v>
+        <v>36.2589054956547</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36.35330850073884</v>
+        <v>36.31080006662254</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>37.39606007547732</v>
+        <v>37.25331962091566</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>39.4684314117907</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39.88708956359823</v>
+        <v>39.88708956359824</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>37.13147130810182</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>40.68232192201997</v>
+        <v>40.64531015474502</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>40.69367194576189</v>
+        <v>40.76892471584781</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>38.9005488539422</v>
+        <v>38.88394577353625</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39.42077483527849</v>
+        <v>39.45432955715452</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>36.37315037885321</v>
+        <v>36.41483150857538</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>35.09613826204098</v>
+        <v>35.12964039736443</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>34.13164484537943</v>
+        <v>34.20786555542329</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>34.99638626679103</v>
+        <v>34.96353426310743</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>39.34112171619424</v>
+        <v>39.3101335079114</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>38.62915240765607</v>
+        <v>38.69133745763402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>37.08536964989651</v>
+        <v>36.99381645087233</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>37.60529818011637</v>
+        <v>37.58804330483285</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>41.59416836153937</v>
+        <v>41.5810406135154</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>41.75191652684767</v>
+        <v>41.80352996846838</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>40.07886364182713</v>
+        <v>40.03993975416065</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>40.35144679015629</v>
+        <v>40.34030425311302</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>37.91307691693916</v>
+        <v>37.97840135716662</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>36.72245169575228</v>
+        <v>36.6312780330632</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>35.64866473293507</v>
+        <v>35.65198846797671</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>35.90741288793193</v>
+        <v>35.9208249824426</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>40.12659081451548</v>
+        <v>40.12790518169889</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>39.53592194399675</v>
+        <v>39.56656363847959</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38.01021549836977</v>
+        <v>37.96693253119675</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>38.26702430224258</v>
+        <v>38.25082150185719</v>
       </c>
     </row>
     <row r="22">
